--- a/Dataset/Train.xlsx
+++ b/Dataset/Train.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_6_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_64_.jpg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,18 +467,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_25_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_33_.jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -491,23 +491,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_64_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_15_.jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_44_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_63_.jpg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -538,16 +538,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_37_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_26_.jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -558,27 +558,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_12_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_18_.jpg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_1_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_66_.jpg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -598,36 +598,36 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_39_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_43_.jpg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_15_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_68_.jpg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -638,47 +638,47 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_46_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_11_.jpg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_54_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_36_.jpg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_21_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_56_.jpg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -698,16 +698,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_9_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_14_.jpg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_65_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_69_.jpg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -731,14 +731,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_32_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_57_.jpg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_15_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_52_.jpg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -767,27 +767,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_28_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_21_.jpg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -798,27 +798,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_35_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_54_.jpg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_63_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_54_.jpg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_51_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_31_.jpg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -858,16 +858,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_24_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_44_.jpg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_66_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_29_.jpg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -891,14 +891,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_14_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_28_.jpg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -907,18 +907,18 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_5_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_64_.jpg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_43_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_3_.jpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -947,18 +947,18 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_20_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_62_.jpg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -967,11 +967,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -998,47 +998,47 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_41_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_60_.jpg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_49_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_39_.jpg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_61_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_55_.jpg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1047,27 +1047,27 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_29_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_9_.jpg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_4_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_46_.jpg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1098,27 +1098,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_8_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_34_.jpg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_2_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_48_.jpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_61_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_6_.jpg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_57_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_22_.jpg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1171,43 +1171,43 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_20_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_61_.jpg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_59_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_58_.jpg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1218,16 +1218,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_65_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_14_.jpg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1238,16 +1238,16 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_55_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_68_.jpg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1258,27 +1258,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_49_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_12_.jpg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_35_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_16_.jpg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1287,18 +1287,18 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_60_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_2_.jpg</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_48_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_23_.jpg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1331,14 +1331,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_64_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_65_.jpg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1351,23 +1351,23 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_46_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_39_.jpg</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1378,16 +1378,16 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_62_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_40_.jpg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_50_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_62_.jpg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1418,7 +1418,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_38_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_17_.jpg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_17_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_22_.jpg</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1458,16 +1458,16 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_31_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_47_.jpg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1478,16 +1478,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_47_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_37_.jpg</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1498,16 +1498,16 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_33_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_20_.jpg</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1518,36 +1518,36 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_30_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_26_.jpg</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_56_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_51_.jpg</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_36_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_33_.jpg</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1578,67 +1578,67 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_67_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_13_.jpg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_63_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_31_.jpg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_38_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_66_.jpg</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_69_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_61_.jpg</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1658,47 +1658,47 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_17_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_40_.jpg</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_33_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_2_.jpg</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_11_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_15_.jpg</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1707,18 +1707,18 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_26_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_5_.jpg</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1727,23 +1727,23 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_31_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_46_.jpg</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1751,14 +1751,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_29_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_44_.jpg</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1778,16 +1778,16 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_68_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_49_.jpg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_18_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_30_.jpg</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1807,18 +1807,18 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_7_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_8_.jpg</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1827,18 +1827,18 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_36_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_25_.jpg</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1858,7 +1858,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_52_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_48_.jpg</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_12_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_35_.jpg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_4_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_65_.jpg</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_34_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_67_.jpg</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1927,27 +1927,27 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_42_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_29_.jpg</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1958,12 +1958,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_8_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_45_.jpg</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1971,14 +1971,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_5_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_28_.jpg</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1987,27 +1987,27 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_39_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_57_.jpg</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_68_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_63_.jpg</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2038,7 +2038,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_50_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_49_.jpg</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2047,18 +2047,18 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_22_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_59_.jpg</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2067,18 +2067,18 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_40_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_25_.jpg</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2087,38 +2087,38 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_58_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_42_.jpg</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_16_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_24_.jpg</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2127,18 +2127,18 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_47_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_7_.jpg</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2158,16 +2158,16 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_26_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_47_.jpg</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2178,27 +2178,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_67_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_60_.jpg</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Not Smiling</t>
+          <t>Smiling</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_53_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_6_.jpg</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2207,18 +2207,18 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_51_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_32_.jpg</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2231,14 +2231,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_25_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_51_.jpg</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_7_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_36_.jpg</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2278,12 +2278,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_24_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_53_.jpg</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2298,27 +2298,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_10_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_21_.jpg</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_3_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_9_.jpg</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2327,27 +2327,27 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_28_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_53_.jpg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2358,16 +2358,16 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_45_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_41_.jpg</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_27_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_23_.jpg</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2398,60 +2398,60 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_58_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_27_.jpg</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_22_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_19_.jpg</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sameed</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Sameed\Cropped\Sameed_3_.jpg</t>
+          <t>C:\Users\Sameed\Desktop\ML_Overall_Work\Dataset\Unknown\Cropped\Unknown_1_.jpg</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sameed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Smiling</t>
+          <t>Not Smiling</t>
         </is>
       </c>
     </row>
